--- a/biology/Zoologie/Cicerinidae/Cicerinidae.xlsx
+++ b/biology/Zoologie/Cicerinidae/Cicerinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cicerinidae sont une famille de vers plats aquatiques de l'ordre des Rhabdocoela (infra-ordre des Eukalyptorhynchia et sous-ordre des Kalyptorhynchia).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +551,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cicerinidae Meixner, 1928[1].
-Cicerinidae a pour synonyme Zonorhynchidae Karling, 1952[1].
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (27 décembre 2023)[1], la famille des Cicerinidae regroupe les sous-familles et genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cicerinidae Meixner, 1928.
+Cicerinidae a pour synonyme Zonorhynchidae Karling, 1952.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cicerinidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicerinidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (27 décembre 2023), la famille des Cicerinidae regroupe les sous-familles et genres suivants :
 Famille des Cicerinidae
 sous-famille des Acrumeninae Karling, 1980
 genre Acrumena Brunet, 1965
@@ -555,9 +606,43 @@
 genre Xenocicerina Karling, 1956
 sous-famille des Xenocicerininae Evdonin, 1977
 genre Xenocicerina Karling, 1956
-genre Acirrostylus Van Steenkiste, Volonterio, Schockaert &amp; Artois, 2008
-Synonymes, reclassements, suppressions
-D'après World Register of Marine Species                               (27 décembre 2023)[1] :
+genre Acirrostylus Van Steenkiste, Volonterio, Schockaert &amp; Artois, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cicerinidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicerinidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements, suppressions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (27 décembre 2023) :
 dans la sous-famille des Acrumeninae, le genre Etmorhynchus Meixner, 1938 (erreur orthographique dans la littérature) est Ethmorhynchus Meixner, 1938 ;
 dans la sous-famille des Cicerininae, le genre Blennorhynchus Meixner, 1938 (nomen nudum) est Paracicerina Meixner, 1928 ;
 la sous-famille des Zonorhynchinae Karling, 1952 est supprimée. Le genre Zonorhynchus Karling, 1952 est remonté directement sous l'infra-ordre des Eukalyptorhynchia ;
